--- a/xlsx/社会阶级_intext.xlsx
+++ b/xlsx/社会阶级_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>社会阶级</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>社會階層</t>
+    <t>社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>社會學史</t>
+    <t>社会学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
   </si>
   <si>
-    <t>結構與能動性</t>
+    <t>结构与能动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
@@ -131,37 +131,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算社會學</t>
+    <t>计算社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
   </si>
   <si>
-    <t>民族誌</t>
+    <t>民族志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>社會變遷</t>
+    <t>社会变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市社會學</t>
+    <t>都市社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
   </si>
   <si>
-    <t>社会阶层</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>越軌社會學</t>
+    <t>越轨社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
   </si>
   <si>
-    <t>社會化</t>
+    <t>社会化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>社會不平等</t>
+    <t>社会不平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -245,13 +242,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業社會學</t>
+    <t>工业社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>網際網路社會學</t>
+    <t>网际网路社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>群體</t>
+    <t>群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>社會企業</t>
+    <t>社会企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -383,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟地理學</t>
+    <t>经济地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
   </si>
   <si>
-    <t>經濟思想史</t>
+    <t>经济思想史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會人類學</t>
+    <t>社会人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會地理學</t>
+    <t>社会地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -437,19 +434,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會哲學</t>
+    <t>社会哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會統計學</t>
+    <t>社会统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%E8%AD%BD</t>
   </si>
   <si>
-    <t>榮譽</t>
+    <t>荣誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC%E8%A7%82</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>西方社會</t>
+    <t>西方社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>中產階級</t>
+    <t>中产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E9%A2%86</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98</t>
   </si>
   <si>
-    <t>白領</t>
+    <t>白领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E5%A7%93%E5%88%B6%E5%BA%A6</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E9%AC%A5%E7%88%AD</t>
   </si>
   <si>
-    <t>階級鬥爭</t>
+    <t>阶级斗争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%B5%84%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A5%B4</t>
   </si>
   <si>
-    <t>農奴</t>
+    <t>农奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%91</t>
@@ -665,15 +662,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B1%A4%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>上層階級</t>
+    <t>上层阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
-    <t>中产阶级</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%B7%A5</t>
   </si>
   <si>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B1%E6%B0%91</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B3%E5%A3%AB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>紳士階級</t>
+    <t>绅士阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8F%91%E6%88%B7</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
         <v>10</v>
@@ -1790,10 +1784,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1819,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1848,10 +1842,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1877,10 +1871,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1906,10 +1900,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1935,10 +1929,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1964,10 +1958,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1993,10 +1987,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2022,10 +2016,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2051,10 +2045,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
@@ -2080,10 +2074,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2109,10 +2103,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2138,10 +2132,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2167,10 +2161,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2196,10 +2190,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2225,10 +2219,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2254,10 +2248,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2283,10 +2277,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2312,10 +2306,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2341,10 +2335,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2370,10 +2364,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2399,10 +2393,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2428,10 +2422,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2457,10 +2451,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2486,10 +2480,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2515,10 +2509,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2544,10 +2538,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2573,10 +2567,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2602,10 +2596,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2631,10 +2625,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2660,10 +2654,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2689,10 +2683,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2718,10 +2712,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2747,10 +2741,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2776,10 +2770,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2805,10 +2799,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2834,10 +2828,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2863,10 +2857,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2892,10 +2886,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2921,10 +2915,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2950,10 +2944,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2979,10 +2973,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3008,10 +3002,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3037,10 +3031,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3066,10 +3060,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3095,10 +3089,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3124,10 +3118,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3153,10 +3147,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3182,10 +3176,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3211,10 +3205,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3240,10 +3234,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3269,10 +3263,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>11</v>
@@ -3298,10 +3292,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3327,10 +3321,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3356,10 +3350,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3385,10 +3379,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3414,10 +3408,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3443,10 +3437,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3472,10 +3466,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -3501,10 +3495,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3530,10 +3524,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3559,10 +3553,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3588,10 +3582,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3617,10 +3611,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3646,10 +3640,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3675,10 +3669,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3704,10 +3698,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3733,10 +3727,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3762,10 +3756,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3791,10 +3785,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -3820,10 +3814,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -3849,10 +3843,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -3878,10 +3872,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3907,10 +3901,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3936,10 +3930,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3965,10 +3959,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -3994,10 +3988,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4023,10 +4017,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4055,7 +4049,7 @@
         <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4081,10 +4075,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4110,10 +4104,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4139,10 +4133,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4168,10 +4162,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4197,10 +4191,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4226,10 +4220,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4255,10 +4249,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4284,10 +4278,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4313,10 +4307,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4342,10 +4336,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4371,10 +4365,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4400,10 +4394,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4429,10 +4423,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4458,10 +4452,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4487,10 +4481,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4516,10 +4510,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4545,10 +4539,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4574,10 +4568,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4603,10 +4597,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -4632,10 +4626,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4661,10 +4655,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4690,10 +4684,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>

--- a/xlsx/社会阶级_intext.xlsx
+++ b/xlsx/社会阶级_intext.xlsx
@@ -29,7 +29,7 @@
     <t>意识形态</t>
   </si>
   <si>
-    <t>政策_政策_管理_社会阶级</t>
+    <t>体育运动_体育运动_草根_社会阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C</t>
